--- a/SupportingDocs/Papers/_FinalThesis/References.xlsx
+++ b/SupportingDocs/Papers/_FinalThesis/References.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\Masters\SupportingDocs\Papers\_FinalThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6953B08B-53C5-4EF9-9AF8-AEF4862BB8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3F1A4B-0834-4E52-B0AF-F88E008E3979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C7F92C1C-09D7-466F-9367-DD69F40F3718}"/>
   </bookViews>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B3B954-4DAB-4CAC-95C5-7F737A0C359A}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +862,7 @@
     <row r="43" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
